--- a/scaling-plots/excel-processed/erase_create_local.xlsx
+++ b/scaling-plots/excel-processed/erase_create_local.xlsx
@@ -168,7 +168,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -189,6 +189,21 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -269,7 +284,1248 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF420E"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Speedup and execution time
+erase create</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$X$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Execution time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$35:$U$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$35:$X$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>57.702877</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.221933</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>191.993535</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>328.473464</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>596.464115</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1209.74796</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2214.901869</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="95075442"/>
+        <c:axId val="75800490"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$V$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>speedup</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$35:$U$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$V$35:$V$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>38.3846002860481</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.0999715601175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.5363356844281</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.74301613904495</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.71338662846465</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.83087877990718</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="13204486"/>
+        <c:axId val="62716648"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="95075442"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>#N thread</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="75800490"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="75800490"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>execution time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="95075442"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="13204486"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="62716648"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="62716648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="13204486"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Speedup and number of object per thread
+erase create</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$X$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Execution time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$35:$U$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$35:$X$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>57.702877</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.221933</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>191.993535</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>328.473464</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>596.464115</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1209.74796</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2214.901869</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="85093978"/>
+        <c:axId val="67033693"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$W$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#N object per thread</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$35:$U$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$W$35:$W$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>31250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="19105289"/>
+        <c:axId val="63901133"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="85093978"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>#N thread</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="67033693"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="67033693"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>execution time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="85093978"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="19105289"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="63901133"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="63901133"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>#N object per thread</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="19105289"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>511560</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>86040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>747720</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>114840</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="20109960" y="5450400"/>
+        <a:ext cx="8402400" cy="4417920"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>561240</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>95760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>797400</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>124560</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="20159640" y="10011600"/>
+        <a:ext cx="8402400" cy="4417920"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -279,11 +1535,11 @@
   </sheetPr>
   <dimension ref="A1:AH62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y30" activeCellId="0" sqref="Y30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V59" activeCellId="0" sqref="V59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -353,31 +1609,31 @@
       <c r="N4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="0" t="s">
+      <c r="P4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="0" t="s">
+      <c r="Q4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="0" t="s">
+      <c r="R4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="0" t="s">
+      <c r="S4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="0" t="s">
+      <c r="T4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="U4" s="0" t="s">
+      <c r="U4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V4" s="0" t="s">
+      <c r="V4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="0" t="s">
+      <c r="W4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X4" s="0" t="s">
+      <c r="X4" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -424,31 +1680,31 @@
       <c r="N5" s="1" t="n">
         <v>0.025455</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="P5" s="1" t="n">
         <v>0.06228</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="Q5" s="1" t="n">
         <v>7.229788</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="R5" s="1" t="n">
         <v>31.502031</v>
       </c>
-      <c r="S5" s="0" t="n">
+      <c r="S5" s="1" t="n">
         <v>40.650275</v>
       </c>
-      <c r="T5" s="0" t="n">
+      <c r="T5" s="1" t="n">
         <v>2.164591</v>
       </c>
-      <c r="U5" s="0" t="n">
+      <c r="U5" s="1" t="n">
         <v>0.275655</v>
       </c>
-      <c r="V5" s="0" t="n">
+      <c r="V5" s="1" t="n">
         <v>0.272862</v>
       </c>
       <c r="W5" s="2" t="n">
         <v>1.4E-005</v>
       </c>
-      <c r="X5" s="0" t="n">
+      <c r="X5" s="1" t="n">
         <v>0.025455</v>
       </c>
     </row>
@@ -495,31 +1751,31 @@
       <c r="N6" s="1" t="n">
         <v>0.00163</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="P6" s="1" t="n">
         <v>0.093116</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="Q6" s="1" t="n">
         <v>3.222396</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="R6" s="1" t="n">
         <v>22.280445</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="S6" s="1" t="n">
         <v>49.273239</v>
       </c>
-      <c r="T6" s="0" t="n">
+      <c r="T6" s="1" t="n">
         <v>1.407691</v>
       </c>
-      <c r="U6" s="0" t="n">
+      <c r="U6" s="1" t="n">
         <v>0.052671</v>
       </c>
-      <c r="V6" s="0" t="n">
+      <c r="V6" s="1" t="n">
         <v>0.090721</v>
       </c>
       <c r="W6" s="2" t="n">
         <v>6.1E-005</v>
       </c>
-      <c r="X6" s="0" t="n">
+      <c r="X6" s="1" t="n">
         <v>0.00159</v>
       </c>
     </row>
@@ -566,31 +1822,31 @@
       <c r="N7" s="1" t="n">
         <v>0.001557</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="P7" s="1" t="n">
         <v>0.111732</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="Q7" s="1" t="n">
         <v>2.841106</v>
       </c>
-      <c r="R7" s="0" t="n">
+      <c r="R7" s="1" t="n">
         <v>22.187725</v>
       </c>
-      <c r="S7" s="0" t="n">
+      <c r="S7" s="1" t="n">
         <v>45.217053</v>
       </c>
-      <c r="T7" s="0" t="n">
+      <c r="T7" s="1" t="n">
         <v>1.310658</v>
       </c>
-      <c r="U7" s="0" t="n">
+      <c r="U7" s="1" t="n">
         <v>0.051969</v>
       </c>
-      <c r="V7" s="0" t="n">
+      <c r="V7" s="1" t="n">
         <v>0.068943</v>
       </c>
       <c r="W7" s="2" t="n">
         <v>6.6E-005</v>
       </c>
-      <c r="X7" s="0" t="n">
+      <c r="X7" s="1" t="n">
         <v>0.00153</v>
       </c>
     </row>
@@ -637,31 +1893,31 @@
       <c r="N8" s="1" t="n">
         <v>0.001558</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="P8" s="1" t="n">
         <v>0.088995</v>
       </c>
-      <c r="Q8" s="0" t="n">
+      <c r="Q8" s="1" t="n">
         <v>2.632095</v>
       </c>
-      <c r="R8" s="0" t="n">
+      <c r="R8" s="1" t="n">
         <v>22.260491</v>
       </c>
-      <c r="S8" s="0" t="n">
+      <c r="S8" s="1" t="n">
         <v>37.125063</v>
       </c>
-      <c r="T8" s="0" t="n">
+      <c r="T8" s="1" t="n">
         <v>1.237406</v>
       </c>
-      <c r="U8" s="0" t="n">
+      <c r="U8" s="1" t="n">
         <v>0.03841</v>
       </c>
-      <c r="V8" s="0" t="n">
+      <c r="V8" s="1" t="n">
         <v>0.050625</v>
       </c>
       <c r="W8" s="2" t="n">
         <v>7.7E-005</v>
       </c>
-      <c r="X8" s="0" t="n">
+      <c r="X8" s="1" t="n">
         <v>0.001525</v>
       </c>
     </row>
@@ -708,31 +1964,31 @@
       <c r="N9" s="1" t="n">
         <v>0.001591</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="P9" s="1" t="n">
         <v>0.047867</v>
       </c>
-      <c r="Q9" s="0" t="n">
+      <c r="Q9" s="1" t="n">
         <v>2.371784</v>
       </c>
-      <c r="R9" s="0" t="n">
+      <c r="R9" s="1" t="n">
         <v>22.273466</v>
       </c>
-      <c r="S9" s="0" t="n">
+      <c r="S9" s="1" t="n">
         <v>32.347148</v>
       </c>
-      <c r="T9" s="0" t="n">
+      <c r="T9" s="1" t="n">
         <v>1.167131</v>
       </c>
-      <c r="U9" s="0" t="n">
+      <c r="U9" s="1" t="n">
         <v>0.022898</v>
       </c>
-      <c r="V9" s="0" t="n">
+      <c r="V9" s="1" t="n">
         <v>0.050126</v>
       </c>
-      <c r="W9" s="0" t="n">
+      <c r="W9" s="1" t="n">
         <v>0.000133</v>
       </c>
-      <c r="X9" s="0" t="n">
+      <c r="X9" s="1" t="n">
         <v>0.001517</v>
       </c>
     </row>
@@ -779,31 +2035,31 @@
       <c r="N10" s="1" t="n">
         <v>0.001601</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="P10" s="1" t="n">
         <v>0.04079</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="Q10" s="1" t="n">
         <v>2.493041</v>
       </c>
-      <c r="R10" s="0" t="n">
+      <c r="R10" s="1" t="n">
         <v>22.293962</v>
       </c>
-      <c r="S10" s="0" t="n">
+      <c r="S10" s="1" t="n">
         <v>30.110308</v>
       </c>
-      <c r="T10" s="0" t="n">
+      <c r="T10" s="1" t="n">
         <v>1.179267</v>
       </c>
-      <c r="U10" s="0" t="n">
+      <c r="U10" s="1" t="n">
         <v>0.025662</v>
       </c>
-      <c r="V10" s="0" t="n">
+      <c r="V10" s="1" t="n">
         <v>0.041371</v>
       </c>
-      <c r="W10" s="0" t="n">
+      <c r="W10" s="1" t="n">
         <v>0.000228</v>
       </c>
-      <c r="X10" s="0" t="n">
+      <c r="X10" s="1" t="n">
         <v>0.00151</v>
       </c>
     </row>
@@ -850,31 +2106,31 @@
       <c r="N11" s="1" t="n">
         <v>0.001597</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="P11" s="1" t="n">
         <v>0.044614</v>
       </c>
-      <c r="Q11" s="0" t="n">
+      <c r="Q11" s="1" t="n">
         <v>2.488713</v>
       </c>
-      <c r="R11" s="0" t="n">
+      <c r="R11" s="1" t="n">
         <v>22.123681</v>
       </c>
-      <c r="S11" s="0" t="n">
+      <c r="S11" s="1" t="n">
         <v>28.995824</v>
       </c>
-      <c r="T11" s="0" t="n">
+      <c r="T11" s="1" t="n">
         <v>0.966994</v>
       </c>
-      <c r="U11" s="0" t="n">
+      <c r="U11" s="1" t="n">
         <v>0.023757</v>
       </c>
-      <c r="V11" s="0" t="n">
+      <c r="V11" s="1" t="n">
         <v>0.048145</v>
       </c>
-      <c r="W11" s="0" t="n">
+      <c r="W11" s="1" t="n">
         <v>0.000234</v>
       </c>
-      <c r="X11" s="0" t="n">
+      <c r="X11" s="1" t="n">
         <v>0.00147</v>
       </c>
     </row>
@@ -921,31 +2177,31 @@
       <c r="N12" s="1" t="n">
         <v>0.003581</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="P12" s="1" t="n">
         <v>0.05539</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="Q12" s="1" t="n">
         <v>8.520097</v>
       </c>
-      <c r="R12" s="0" t="n">
+      <c r="R12" s="1" t="n">
         <v>44.49041</v>
       </c>
-      <c r="S12" s="0" t="n">
+      <c r="S12" s="1" t="n">
         <v>60.798351</v>
       </c>
-      <c r="T12" s="0" t="n">
+      <c r="T12" s="1" t="n">
         <v>2.815746</v>
       </c>
-      <c r="U12" s="0" t="n">
+      <c r="U12" s="1" t="n">
         <v>0.071541</v>
       </c>
-      <c r="V12" s="0" t="n">
+      <c r="V12" s="1" t="n">
         <v>0.175553</v>
       </c>
       <c r="W12" s="2" t="n">
         <v>1.7E-005</v>
       </c>
-      <c r="X12" s="0" t="n">
+      <c r="X12" s="1" t="n">
         <v>0.003581</v>
       </c>
     </row>
@@ -992,31 +2248,31 @@
       <c r="N13" s="1" t="n">
         <v>0.002533</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="P13" s="1" t="n">
         <v>0.095753</v>
       </c>
-      <c r="Q13" s="0" t="n">
+      <c r="Q13" s="1" t="n">
         <v>3.902979</v>
       </c>
-      <c r="R13" s="0" t="n">
+      <c r="R13" s="1" t="n">
         <v>44.274498</v>
       </c>
-      <c r="S13" s="0" t="n">
+      <c r="S13" s="1" t="n">
         <v>67.273222</v>
       </c>
-      <c r="T13" s="0" t="n">
+      <c r="T13" s="1" t="n">
         <v>2.450964</v>
       </c>
-      <c r="U13" s="0" t="n">
+      <c r="U13" s="1" t="n">
         <v>0.090999</v>
       </c>
-      <c r="V13" s="0" t="n">
+      <c r="V13" s="1" t="n">
         <v>0.092828</v>
       </c>
       <c r="W13" s="2" t="n">
         <v>6.3E-005</v>
       </c>
-      <c r="X13" s="0" t="n">
+      <c r="X13" s="1" t="n">
         <v>0.002487</v>
       </c>
     </row>
@@ -1063,31 +2319,31 @@
       <c r="N14" s="1" t="n">
         <v>0.008197</v>
       </c>
-      <c r="P14" s="0" t="n">
+      <c r="P14" s="1" t="n">
         <v>0.063103</v>
       </c>
-      <c r="Q14" s="0" t="n">
+      <c r="Q14" s="1" t="n">
         <v>3.166662</v>
       </c>
-      <c r="R14" s="0" t="n">
+      <c r="R14" s="1" t="n">
         <v>43.819104</v>
       </c>
-      <c r="S14" s="0" t="n">
+      <c r="S14" s="1" t="n">
         <v>60.512707</v>
       </c>
-      <c r="T14" s="0" t="n">
+      <c r="T14" s="1" t="n">
         <v>2.431612</v>
       </c>
-      <c r="U14" s="0" t="n">
+      <c r="U14" s="1" t="n">
         <v>0.06265</v>
       </c>
-      <c r="V14" s="0" t="n">
+      <c r="V14" s="1" t="n">
         <v>0.110045</v>
       </c>
       <c r="W14" s="2" t="n">
         <v>4.8E-005</v>
       </c>
-      <c r="X14" s="0" t="n">
+      <c r="X14" s="1" t="n">
         <v>0.008156</v>
       </c>
     </row>
@@ -1134,31 +2390,31 @@
       <c r="N15" s="1" t="n">
         <v>0.002473</v>
       </c>
-      <c r="P15" s="0" t="n">
+      <c r="P15" s="1" t="n">
         <v>0.071807</v>
       </c>
-      <c r="Q15" s="0" t="n">
+      <c r="Q15" s="1" t="n">
         <v>3.155314</v>
       </c>
-      <c r="R15" s="0" t="n">
+      <c r="R15" s="1" t="n">
         <v>43.962265</v>
       </c>
-      <c r="S15" s="0" t="n">
+      <c r="S15" s="1" t="n">
         <v>53.787532</v>
       </c>
-      <c r="T15" s="0" t="n">
+      <c r="T15" s="1" t="n">
         <v>2.235668</v>
       </c>
-      <c r="U15" s="0" t="n">
+      <c r="U15" s="1" t="n">
         <v>0.04483</v>
       </c>
-      <c r="V15" s="0" t="n">
+      <c r="V15" s="1" t="n">
         <v>0.081443</v>
       </c>
       <c r="W15" s="2" t="n">
         <v>8.2E-005</v>
       </c>
-      <c r="X15" s="0" t="n">
+      <c r="X15" s="1" t="n">
         <v>0.002402</v>
       </c>
     </row>
@@ -1205,31 +2461,31 @@
       <c r="N16" s="1" t="n">
         <v>0.002433</v>
       </c>
-      <c r="P16" s="0" t="n">
+      <c r="P16" s="1" t="n">
         <v>0.066011</v>
       </c>
-      <c r="Q16" s="0" t="n">
+      <c r="Q16" s="1" t="n">
         <v>3.071352</v>
       </c>
-      <c r="R16" s="0" t="n">
+      <c r="R16" s="1" t="n">
         <v>44.12605</v>
       </c>
-      <c r="S16" s="0" t="n">
+      <c r="S16" s="1" t="n">
         <v>50.148906</v>
       </c>
-      <c r="T16" s="0" t="n">
+      <c r="T16" s="1" t="n">
         <v>2.349982</v>
       </c>
-      <c r="U16" s="0" t="n">
+      <c r="U16" s="1" t="n">
         <v>0.039967</v>
       </c>
-      <c r="V16" s="0" t="n">
+      <c r="V16" s="1" t="n">
         <v>0.076532</v>
       </c>
-      <c r="W16" s="0" t="n">
+      <c r="W16" s="1" t="n">
         <v>0.000117</v>
       </c>
-      <c r="X16" s="0" t="n">
+      <c r="X16" s="1" t="n">
         <v>0.002368</v>
       </c>
     </row>
@@ -1276,31 +2532,31 @@
       <c r="N17" s="1" t="n">
         <v>0.002477</v>
       </c>
-      <c r="P17" s="0" t="n">
+      <c r="P17" s="1" t="n">
         <v>0.066344</v>
       </c>
-      <c r="Q17" s="0" t="n">
+      <c r="Q17" s="1" t="n">
         <v>2.978569</v>
       </c>
-      <c r="R17" s="0" t="n">
+      <c r="R17" s="1" t="n">
         <v>43.769197</v>
       </c>
-      <c r="S17" s="0" t="n">
+      <c r="S17" s="1" t="n">
         <v>48.17941</v>
       </c>
-      <c r="T17" s="0" t="n">
+      <c r="T17" s="1" t="n">
         <v>1.939151</v>
       </c>
-      <c r="U17" s="0" t="n">
+      <c r="U17" s="1" t="n">
         <v>0.036027</v>
       </c>
-      <c r="V17" s="0" t="n">
+      <c r="V17" s="1" t="n">
         <v>0.075089</v>
       </c>
-      <c r="W17" s="0" t="n">
+      <c r="W17" s="1" t="n">
         <v>0.000188</v>
       </c>
-      <c r="X17" s="0" t="n">
+      <c r="X17" s="1" t="n">
         <v>0.002342</v>
       </c>
     </row>
@@ -1347,31 +2603,31 @@
       <c r="N18" s="1" t="n">
         <v>0.004988</v>
       </c>
-      <c r="P18" s="0" t="n">
+      <c r="P18" s="1" t="n">
         <v>0.077153</v>
       </c>
-      <c r="Q18" s="0" t="n">
+      <c r="Q18" s="1" t="n">
         <v>9.371788</v>
       </c>
-      <c r="R18" s="0" t="n">
+      <c r="R18" s="1" t="n">
         <v>88.924937</v>
       </c>
-      <c r="S18" s="0" t="n">
+      <c r="S18" s="1" t="n">
         <v>108.800754</v>
       </c>
-      <c r="T18" s="0" t="n">
+      <c r="T18" s="1" t="n">
         <v>5.281226</v>
       </c>
-      <c r="U18" s="0" t="n">
+      <c r="U18" s="1" t="n">
         <v>0.154057</v>
       </c>
-      <c r="V18" s="0" t="n">
+      <c r="V18" s="1" t="n">
         <v>0.218288</v>
       </c>
       <c r="W18" s="2" t="n">
         <v>1.9E-005</v>
       </c>
-      <c r="X18" s="0" t="n">
+      <c r="X18" s="1" t="n">
         <v>0.004988</v>
       </c>
     </row>
@@ -1418,31 +2674,31 @@
       <c r="N19" s="1" t="n">
         <v>0.049408</v>
       </c>
-      <c r="P19" s="0" t="n">
+      <c r="P19" s="1" t="n">
         <v>0.20149</v>
       </c>
-      <c r="Q19" s="0" t="n">
+      <c r="Q19" s="1" t="n">
         <v>5.024481</v>
       </c>
-      <c r="R19" s="0" t="n">
+      <c r="R19" s="1" t="n">
         <v>87.85978</v>
       </c>
-      <c r="S19" s="0" t="n">
+      <c r="S19" s="1" t="n">
         <v>100.708661</v>
       </c>
-      <c r="T19" s="0" t="n">
+      <c r="T19" s="1" t="n">
         <v>4.937778</v>
       </c>
-      <c r="U19" s="0" t="n">
+      <c r="U19" s="1" t="n">
         <v>0.112522</v>
       </c>
-      <c r="V19" s="0" t="n">
+      <c r="V19" s="1" t="n">
         <v>0.164009</v>
       </c>
       <c r="W19" s="2" t="n">
         <v>5.2E-005</v>
       </c>
-      <c r="X19" s="0" t="n">
+      <c r="X19" s="1" t="n">
         <v>0.038371</v>
       </c>
     </row>
@@ -1489,31 +2745,31 @@
       <c r="N20" s="1" t="n">
         <v>0.004314</v>
       </c>
-      <c r="P20" s="0" t="n">
+      <c r="P20" s="1" t="n">
         <v>0.093308</v>
       </c>
-      <c r="Q20" s="0" t="n">
+      <c r="Q20" s="1" t="n">
         <v>4.59642</v>
       </c>
-      <c r="R20" s="0" t="n">
+      <c r="R20" s="1" t="n">
         <v>87.118993</v>
       </c>
-      <c r="S20" s="0" t="n">
+      <c r="S20" s="1" t="n">
         <v>97.227116</v>
       </c>
-      <c r="T20" s="0" t="n">
+      <c r="T20" s="1" t="n">
         <v>4.681028</v>
       </c>
-      <c r="U20" s="0" t="n">
+      <c r="U20" s="1" t="n">
         <v>0.119745</v>
       </c>
-      <c r="V20" s="0" t="n">
+      <c r="V20" s="1" t="n">
         <v>0.209624</v>
       </c>
       <c r="W20" s="2" t="n">
         <v>4.5E-005</v>
       </c>
-      <c r="X20" s="0" t="n">
+      <c r="X20" s="1" t="n">
         <v>0.004273</v>
       </c>
     </row>
@@ -1560,31 +2816,31 @@
       <c r="N21" s="1" t="n">
         <v>0.004394</v>
       </c>
-      <c r="P21" s="0" t="n">
+      <c r="P21" s="1" t="n">
         <v>0.099841</v>
       </c>
-      <c r="Q21" s="0" t="n">
+      <c r="Q21" s="1" t="n">
         <v>4.434357</v>
       </c>
-      <c r="R21" s="0" t="n">
+      <c r="R21" s="1" t="n">
         <v>87.087257</v>
       </c>
-      <c r="S21" s="0" t="n">
+      <c r="S21" s="1" t="n">
         <v>92.76911</v>
       </c>
-      <c r="T21" s="0" t="n">
+      <c r="T21" s="1" t="n">
         <v>4.683737</v>
       </c>
-      <c r="U21" s="0" t="n">
+      <c r="U21" s="1" t="n">
         <v>0.080778</v>
       </c>
-      <c r="V21" s="0" t="n">
+      <c r="V21" s="1" t="n">
         <v>0.141623</v>
       </c>
       <c r="W21" s="2" t="n">
         <v>7.2E-005</v>
       </c>
-      <c r="X21" s="0" t="n">
+      <c r="X21" s="1" t="n">
         <v>0.004332</v>
       </c>
     </row>
@@ -1631,31 +2887,31 @@
       <c r="N22" s="1" t="n">
         <v>0.004348</v>
       </c>
-      <c r="P22" s="0" t="n">
+      <c r="P22" s="1" t="n">
         <v>0.100895</v>
       </c>
-      <c r="Q22" s="0" t="n">
+      <c r="Q22" s="1" t="n">
         <v>4.481014</v>
       </c>
-      <c r="R22" s="0" t="n">
+      <c r="R22" s="1" t="n">
         <v>87.903884</v>
       </c>
-      <c r="S22" s="0" t="n">
+      <c r="S22" s="1" t="n">
         <v>90.56994</v>
       </c>
-      <c r="T22" s="0" t="n">
+      <c r="T22" s="1" t="n">
         <v>4.039228</v>
       </c>
-      <c r="U22" s="0" t="n">
+      <c r="U22" s="1" t="n">
         <v>0.074979</v>
       </c>
-      <c r="V22" s="0" t="n">
+      <c r="V22" s="1" t="n">
         <v>0.149854</v>
       </c>
-      <c r="W22" s="0" t="n">
+      <c r="W22" s="1" t="n">
         <v>0.000105</v>
       </c>
-      <c r="X22" s="0" t="n">
+      <c r="X22" s="1" t="n">
         <v>0.004274</v>
       </c>
     </row>
@@ -1702,31 +2958,31 @@
       <c r="N23" s="1" t="n">
         <v>0.008977</v>
       </c>
-      <c r="P23" s="0" t="n">
+      <c r="P23" s="1" t="n">
         <v>0.130546</v>
       </c>
-      <c r="Q23" s="0" t="n">
+      <c r="Q23" s="1" t="n">
         <v>12.335696</v>
       </c>
-      <c r="R23" s="0" t="n">
+      <c r="R23" s="1" t="n">
         <v>176.946064</v>
       </c>
-      <c r="S23" s="0" t="n">
+      <c r="S23" s="1" t="n">
         <v>218.681303</v>
       </c>
-      <c r="T23" s="0" t="n">
+      <c r="T23" s="1" t="n">
         <v>10.100553</v>
       </c>
-      <c r="U23" s="0" t="n">
+      <c r="U23" s="1" t="n">
         <v>0.284576</v>
       </c>
-      <c r="V23" s="0" t="n">
+      <c r="V23" s="1" t="n">
         <v>0.48957</v>
       </c>
       <c r="W23" s="2" t="n">
         <v>2.3E-005</v>
       </c>
-      <c r="X23" s="0" t="n">
+      <c r="X23" s="1" t="n">
         <v>0.008977</v>
       </c>
     </row>
@@ -1773,31 +3029,31 @@
       <c r="N24" s="1" t="n">
         <v>0.005699</v>
       </c>
-      <c r="P24" s="0" t="n">
+      <c r="P24" s="1" t="n">
         <v>0.151574</v>
       </c>
-      <c r="Q24" s="0" t="n">
+      <c r="Q24" s="1" t="n">
         <v>5.255644</v>
       </c>
-      <c r="R24" s="0" t="n">
+      <c r="R24" s="1" t="n">
         <v>173.473299</v>
       </c>
-      <c r="S24" s="0" t="n">
+      <c r="S24" s="1" t="n">
         <v>139.303428</v>
       </c>
-      <c r="T24" s="0" t="n">
+      <c r="T24" s="1" t="n">
         <v>8.834692</v>
       </c>
-      <c r="U24" s="0" t="n">
+      <c r="U24" s="1" t="n">
         <v>0.23462</v>
       </c>
-      <c r="V24" s="0" t="n">
+      <c r="V24" s="1" t="n">
         <v>0.389261</v>
       </c>
       <c r="W24" s="2" t="n">
         <v>5.2E-005</v>
       </c>
-      <c r="X24" s="0" t="n">
+      <c r="X24" s="1" t="n">
         <v>0.005667</v>
       </c>
     </row>
@@ -1844,31 +3100,31 @@
       <c r="N25" s="1" t="n">
         <v>0.005677</v>
       </c>
-      <c r="P25" s="0" t="n">
+      <c r="P25" s="1" t="n">
         <v>0.158403</v>
       </c>
-      <c r="Q25" s="0" t="n">
+      <c r="Q25" s="1" t="n">
         <v>4.670593</v>
       </c>
-      <c r="R25" s="0" t="n">
+      <c r="R25" s="1" t="n">
         <v>172.895123</v>
       </c>
-      <c r="S25" s="0" t="n">
+      <c r="S25" s="1" t="n">
         <v>140.196487</v>
       </c>
-      <c r="T25" s="0" t="n">
+      <c r="T25" s="1" t="n">
         <v>7.92902</v>
       </c>
-      <c r="U25" s="0" t="n">
+      <c r="U25" s="1" t="n">
         <v>0.205134</v>
       </c>
-      <c r="V25" s="0" t="n">
+      <c r="V25" s="1" t="n">
         <v>0.3644</v>
       </c>
       <c r="W25" s="2" t="n">
         <v>6.5E-005</v>
       </c>
-      <c r="X25" s="0" t="n">
+      <c r="X25" s="1" t="n">
         <v>0.005627</v>
       </c>
     </row>
@@ -1915,31 +3171,31 @@
       <c r="N26" s="1" t="n">
         <v>0.005754</v>
       </c>
-      <c r="P26" s="0" t="n">
+      <c r="P26" s="1" t="n">
         <v>0.159047</v>
       </c>
-      <c r="Q26" s="0" t="n">
+      <c r="Q26" s="1" t="n">
         <v>4.469256</v>
       </c>
-      <c r="R26" s="0" t="n">
+      <c r="R26" s="1" t="n">
         <v>173.074041</v>
       </c>
-      <c r="S26" s="0" t="n">
+      <c r="S26" s="1" t="n">
         <v>134.865754</v>
       </c>
-      <c r="T26" s="0" t="n">
+      <c r="T26" s="1" t="n">
         <v>7.208657</v>
       </c>
-      <c r="U26" s="0" t="n">
+      <c r="U26" s="1" t="n">
         <v>0.160634</v>
       </c>
-      <c r="V26" s="0" t="n">
+      <c r="V26" s="1" t="n">
         <v>0.313474</v>
       </c>
       <c r="W26" s="2" t="n">
         <v>6.9E-005</v>
       </c>
-      <c r="X26" s="0" t="n">
+      <c r="X26" s="1" t="n">
         <v>0.00566</v>
       </c>
     </row>
@@ -1986,31 +3242,31 @@
       <c r="N27" s="1" t="n">
         <v>0.012219</v>
       </c>
-      <c r="P27" s="0" t="n">
+      <c r="P27" s="1" t="n">
         <v>0.246535</v>
       </c>
-      <c r="Q27" s="0" t="n">
+      <c r="Q27" s="1" t="n">
         <v>13.280389</v>
       </c>
-      <c r="R27" s="0" t="n">
+      <c r="R27" s="1" t="n">
         <v>352.015198</v>
       </c>
-      <c r="S27" s="0" t="n">
+      <c r="S27" s="1" t="n">
         <v>423.793641</v>
       </c>
-      <c r="T27" s="0" t="n">
+      <c r="T27" s="1" t="n">
         <v>17.220502</v>
       </c>
-      <c r="U27" s="0" t="n">
+      <c r="U27" s="1" t="n">
         <v>0.467755</v>
       </c>
-      <c r="V27" s="0" t="n">
+      <c r="V27" s="1" t="n">
         <v>0.731132</v>
       </c>
       <c r="W27" s="2" t="n">
         <v>2.6E-005</v>
       </c>
-      <c r="X27" s="0" t="n">
+      <c r="X27" s="1" t="n">
         <v>0.012219</v>
       </c>
     </row>
@@ -2057,31 +3313,31 @@
       <c r="N28" s="1" t="n">
         <v>0.009553</v>
       </c>
-      <c r="P28" s="0" t="n">
+      <c r="P28" s="1" t="n">
         <v>0.269762</v>
       </c>
-      <c r="Q28" s="0" t="n">
+      <c r="Q28" s="1" t="n">
         <v>6.118196</v>
       </c>
-      <c r="R28" s="0" t="n">
+      <c r="R28" s="1" t="n">
         <v>347.334066</v>
       </c>
-      <c r="S28" s="0" t="n">
+      <c r="S28" s="1" t="n">
         <v>235.996687</v>
       </c>
-      <c r="T28" s="0" t="n">
+      <c r="T28" s="1" t="n">
         <v>14.87238</v>
       </c>
-      <c r="U28" s="0" t="n">
+      <c r="U28" s="1" t="n">
         <v>0.4478</v>
       </c>
-      <c r="V28" s="0" t="n">
+      <c r="V28" s="1" t="n">
         <v>0.719893</v>
       </c>
       <c r="W28" s="2" t="n">
         <v>4E-005</v>
       </c>
-      <c r="X28" s="0" t="n">
+      <c r="X28" s="1" t="n">
         <v>0.009501</v>
       </c>
     </row>
@@ -2128,31 +3384,31 @@
       <c r="N29" s="1" t="n">
         <v>0.009565</v>
       </c>
-      <c r="P29" s="0" t="n">
+      <c r="P29" s="1" t="n">
         <v>0.281972</v>
       </c>
-      <c r="Q29" s="0" t="n">
+      <c r="Q29" s="1" t="n">
         <v>4.998221</v>
       </c>
-      <c r="R29" s="0" t="n">
+      <c r="R29" s="1" t="n">
         <v>342.119485</v>
       </c>
-      <c r="S29" s="0" t="n">
+      <c r="S29" s="1" t="n">
         <v>224.119431</v>
       </c>
-      <c r="T29" s="0" t="n">
+      <c r="T29" s="1" t="n">
         <v>12.741417</v>
       </c>
-      <c r="U29" s="0" t="n">
+      <c r="U29" s="1" t="n">
         <v>0.373363</v>
       </c>
-      <c r="V29" s="0" t="n">
+      <c r="V29" s="1" t="n">
         <v>0.632602</v>
       </c>
       <c r="W29" s="2" t="n">
         <v>5E-005</v>
       </c>
-      <c r="X29" s="0" t="n">
+      <c r="X29" s="1" t="n">
         <v>0.00949</v>
       </c>
     </row>
@@ -2199,31 +3455,31 @@
       <c r="N30" s="1" t="n">
         <v>0.019338</v>
       </c>
-      <c r="P30" s="0" t="n">
+      <c r="P30" s="1" t="n">
         <v>0.485397</v>
       </c>
-      <c r="Q30" s="0" t="n">
+      <c r="Q30" s="1" t="n">
         <v>15.646042</v>
       </c>
-      <c r="R30" s="0" t="n">
+      <c r="R30" s="1" t="n">
         <v>707.066055</v>
       </c>
-      <c r="S30" s="0" t="n">
+      <c r="S30" s="1" t="n">
         <v>803.255498</v>
       </c>
-      <c r="T30" s="0" t="n">
+      <c r="T30" s="1" t="n">
         <v>26.366542</v>
       </c>
-      <c r="U30" s="0" t="n">
+      <c r="U30" s="1" t="n">
         <v>0.792561</v>
       </c>
-      <c r="V30" s="0" t="n">
+      <c r="V30" s="1" t="n">
         <v>1.315188</v>
       </c>
       <c r="W30" s="2" t="n">
         <v>2.9E-005</v>
       </c>
-      <c r="X30" s="0" t="n">
+      <c r="X30" s="1" t="n">
         <v>0.019338</v>
       </c>
     </row>
@@ -2270,31 +3526,31 @@
       <c r="N31" s="1" t="n">
         <v>0.018704</v>
       </c>
-      <c r="P31" s="0" t="n">
+      <c r="P31" s="1" t="n">
         <v>0.505057</v>
       </c>
-      <c r="Q31" s="0" t="n">
+      <c r="Q31" s="1" t="n">
         <v>8.661193</v>
       </c>
-      <c r="R31" s="0" t="n">
+      <c r="R31" s="1" t="n">
         <v>699.090486</v>
       </c>
-      <c r="S31" s="0" t="n">
+      <c r="S31" s="1" t="n">
         <v>466.755281</v>
       </c>
-      <c r="T31" s="0" t="n">
+      <c r="T31" s="1" t="n">
         <v>23.747894</v>
       </c>
-      <c r="U31" s="0" t="n">
+      <c r="U31" s="1" t="n">
         <v>0.732156</v>
       </c>
-      <c r="V31" s="0" t="n">
+      <c r="V31" s="1" t="n">
         <v>1.180959</v>
       </c>
       <c r="W31" s="2" t="n">
         <v>7E-005</v>
       </c>
-      <c r="X31" s="0" t="n">
+      <c r="X31" s="1" t="n">
         <v>0.018623</v>
       </c>
     </row>
@@ -2341,31 +3597,31 @@
       <c r="N32" s="1" t="n">
         <v>0.038669</v>
       </c>
-      <c r="P32" s="0" t="n">
+      <c r="P32" s="1" t="n">
         <v>0.93955</v>
       </c>
-      <c r="Q32" s="0" t="n">
+      <c r="Q32" s="1" t="n">
         <v>22.699793</v>
       </c>
-      <c r="R32" s="0" t="n">
+      <c r="R32" s="1" t="n">
         <v>1410.173627</v>
       </c>
-      <c r="S32" s="0" t="n">
+      <c r="S32" s="1" t="n">
         <v>733.961087</v>
       </c>
-      <c r="T32" s="0" t="n">
+      <c r="T32" s="1" t="n">
         <v>43.27213</v>
       </c>
-      <c r="U32" s="0" t="n">
+      <c r="U32" s="1" t="n">
         <v>1.382222</v>
       </c>
-      <c r="V32" s="0" t="n">
+      <c r="V32" s="1" t="n">
         <v>2.262203</v>
       </c>
       <c r="W32" s="2" t="n">
         <v>2.3E-005</v>
       </c>
-      <c r="X32" s="0" t="n">
+      <c r="X32" s="1" t="n">
         <v>0.038669</v>
       </c>
     </row>
@@ -4247,5 +5503,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>